--- a/SmartRecruit-main/backend/data/67b98bc79dec34f62a72c1d9.xlsx
+++ b/SmartRecruit-main/backend/data/67b98bc79dec34f62a72c1d9.xlsx
@@ -1,44 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjal\OneDrive\Desktop\final\SmartRecruit\SmartRecruit-main\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F794BA-2132-4633-9943-9CA526D307D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanush </t>
+  </si>
+  <si>
+    <t>bro</t>
+  </si>
+  <si>
+    <t>kaniz.zc@gmail.com</t>
+  </si>
+  <si>
+    <t>kaniz</t>
+  </si>
+  <si>
+    <t>anjali</t>
+  </si>
+  <si>
+    <t>anjali.k9503@gmail.com</t>
+  </si>
+  <si>
+    <t>asmijha8@gmail.com</t>
+  </si>
+  <si>
+    <t>19p0031@gmail.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,17 +93,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,70 +439,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Score</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Ganesh Koparde</v>
-      </c>
-      <c r="B2" t="str">
-        <v>ganeshmk247@gmail.com</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>95</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>sdf</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ssdf@gmail.com</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>80</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve">Dhanush </v>
-      </c>
-      <c r="B4" t="str">
-        <v>dsfsd@gmail.com</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>65</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>bro</v>
-      </c>
-      <c r="B5" t="str">
-        <v>bro@gmail.com</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>125</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BE9DE0C3-66C0-47D0-9173-A4DBA61FA77A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A8C86483-4CBA-4851-8D56-2953A300EEBF}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{DD9A7E05-DBE1-42D7-810C-3CA3E1BE5617}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{94F47BAA-D843-43FA-8B5A-FC6FCF4ED9CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError sqref="A1:C1 A4 C2 C3 A5 C5 C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/SmartRecruit-main/backend/data/67b98bc79dec34f62a72c1d9.xlsx
+++ b/SmartRecruit-main/backend/data/67b98bc79dec34f62a72c1d9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjal\OneDrive\Desktop\final\SmartRecruit\SmartRecruit-main\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F794BA-2132-4633-9943-9CA526D307D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C828DCEE-05A4-4BE2-BC81-E51EBE37135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t xml:space="preserve">Dhanush </t>
-  </si>
-  <si>
-    <t>bro</t>
-  </si>
-  <si>
     <t>kaniz.zc@gmail.com</t>
   </si>
   <si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>19p0031@gmail.com</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>asmi</t>
   </si>
 </sst>
 </file>
@@ -440,13 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -461,10 +464,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>95</v>
@@ -472,10 +475,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>80</v>
@@ -483,10 +486,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>65</v>
@@ -494,13 +497,19 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +521,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A4 C2 C3 A5 C5 C4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 C2 C3 C5 C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>